--- a/Freshman/calculus/2022F/calculus.xlsx
+++ b/Freshman/calculus/2022F/calculus.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\li_ha\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4087292C-52F6-4800-A913-E6F130407F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ADD306-BFA7-4F72-8818-1CE17DDBB51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:B34" si="0">A2*POWER(2,A2)</f>
+        <f t="shared" ref="B2:B19" si="0">A2*POWER(2,A2)</f>
         <v>0</v>
       </c>
       <c r="D2" s="4">
